--- a/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_TJR_2020.xlsx
+++ b/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_TJR_2020.xlsx
@@ -1480,7 +1480,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-124.0485</v>
+        <v>-124.0504</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>-117.1700899002</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>26.7122</v>
+        <v>26.713</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>32.534856</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-110.1775</v>
+        <v>-110.1782</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>-117.0831919972</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>38.344</v>
+        <v>38.3441</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>32.6055180015</v>

--- a/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_TJR_2020.xlsx
+++ b/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_TJR_2020.xlsx
@@ -1480,10 +1480,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-124.0504</v>
+        <v>-117.1384</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>-117.1700899002</v>
+        <v>-117.1358</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>124</v>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>26.713</v>
+        <v>32.5299</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>32.534856</v>
+        <v>32.5321</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>124</v>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-110.1782</v>
+        <v>-117.0876</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>-117.0831919972</v>
+        <v>-117.0902</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>124</v>
@@ -1536,10 +1536,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>38.3441</v>
+        <v>32.5809</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>32.6055180015</v>
+        <v>32.5787</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>125</v>

--- a/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_TJR_2020.xlsx
+++ b/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_TJR_2020.xlsx
@@ -1480,10 +1480,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-117.1384</v>
+        <v>-117.1535</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>-117.1358</v>
+        <v>-117.144</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>124</v>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>32.5299</v>
+        <v>32.5226</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>32.5321</v>
+        <v>32.5305</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>124</v>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-117.0876</v>
+        <v>-117.0704</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>-117.0902</v>
+        <v>-117.0799</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>124</v>
@@ -1536,10 +1536,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>32.5809</v>
+        <v>32.5921</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>32.5787</v>
+        <v>32.5842</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>125</v>
